--- a/database/ZoupingCounty_gwl_filled.xlsx
+++ b/database/ZoupingCounty_gwl_filled.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding_path\groundwater_level_prediction\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding_path\Groundwater_Level_Prediction_ML_DL\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B3E30B-AE93-4589-A635-E84746A95DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDF85FA-7AB6-4E52-954F-4CA4F352CE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,2758 +180,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>linear插值!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>井4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>linear插值!$E$2:$E$632</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="631"/>
-                <c:pt idx="0">
-                  <c:v>12.79</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.72</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.69</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12.66</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.62</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.60405405405405</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12.588108108108109</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.57216216216216</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>12.556216216216219</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.54027027027027</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.52432432432432</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.50837837837838</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>12.49243243243243</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12.47648648648649</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.46054054054054</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12.444594594594591</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12.42864864864865</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>12.412702702702701</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12.39675675675676</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12.380810810810811</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12.36486486486486</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12.348918918918921</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12.33297297297297</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>12.317027027027031</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>12.30108108108108</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>12.28513513513513</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12.26918918918919</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>12.25324324324324</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.2372972972973</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>12.22135135135135</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12.205405405405401</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>12.18945945945946</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>12.173513513513511</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12.15756756756757</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12.141621621621621</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12.125675675675669</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12.109729729729731</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12.093783783783779</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>12.077837837837841</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>12.061891891891889</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>12.045945945945951</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>12.03</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>12.03</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>12.04</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>12.06</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>12.07</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>12.069230769230771</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12.068461538461539</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>12.06769230769231</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>12.06692307692308</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>12.066153846153849</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>12.06538461538462</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>12.064615384615379</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>12.06384615384615</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>12.06307692307692</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>12.062307692307691</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>12.06153846153846</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>12.06076923076923</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>12.06</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>12.05</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>12.05</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>12.05</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>12.04</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>12.04</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>12.04</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>12.05</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>12.04</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>12.04</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>12.04</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>12.03</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>12.03</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>12.01</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>11.98</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>11.98</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>11.97</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>11.91</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>11.91</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>11.92</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>11.92</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>11.93</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>11.94</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>11.91</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>11.92</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>11.93</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>11.94</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>11.95</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>11.96</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>11.91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>11.92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>11.93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>11.94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>11.95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>11.96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>11.91</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>11.92</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>11.93</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>11.94</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>11.95</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>11.96</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>11.91</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>11.92</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>11.93</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>11.94</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>11.95</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>11.96</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>11.91</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>11.92</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>11.93</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>11.94</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>11.95</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>11.96</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>11.96</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>11.95</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>11.94</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>11.93</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>11.92</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>11.91</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>11.91</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>11.89</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>11.88</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>11.87</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>11.86</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>11.85</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>11.82</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>11.78</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>11.76</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>11.74</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>11.76</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>11.78</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>11.82</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>11.84</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>11.86</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>11.86</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>11.85</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>11.84</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>11.85</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>11.83</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>11.82</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>11.89</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>11.88</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>11.87</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>11.86</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>11.85</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>11.85</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>11.84</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>11.85</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>11.86</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>11.87</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>11.88</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>11.86</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>11.84</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>11.82</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>11.78</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>11.81</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>11.82</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>11.84</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>11.86</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>11.88</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>11.91</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>11.92</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>11.93</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>11.94</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>11.95</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>11.97</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>11.98</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>11.99</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>12.06</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>12.04</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>12.04</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>12.06</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>12.08</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>12.15</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>12.26</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>12.33</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>12.43</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>12.56</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>12.62</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>12.63</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>12.68</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>12.72</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>12.78</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>12.89</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>12.85</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>12.84</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>12.81</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>12.8</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>12.79</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>12.78</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>12.76</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>12.74</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>12.68</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>12.66</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>12.66</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>12.62</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>12.65</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>12.53</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>12.46</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>12.41</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>12.36</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>12.31</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>12.26</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>12.19</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>12.1</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>12.02</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>11.98</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>11.96</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>11.94</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>11.95</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>11.93</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>11.92</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>11.9</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>11.88</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>11.85</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>11.83</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>11.84</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>11.82</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>11.82</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>11.79</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>11.81</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>11.83</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>11.82</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>11.84</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>11.83</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>11.85</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>11.85</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>11.83</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>11.82</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>11.81</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>11.85</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>11.96</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>12.03</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>12.08</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>12.12</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>12.12</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>12.32</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>12.45</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>12.49</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>12.56</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>12.63</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>12.63</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>12.55</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>12.52</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>12.47</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>12.45</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>12.45</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>12.43</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>12.42</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>12.41</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>12.4</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>12.39</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>12.38</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>12.38</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>12.39</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>12.38</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>12.38</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>12.38</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>12.38</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>12.38</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>12.38</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>12.38</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>12.38</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>12.35</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>12.28</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>12.28</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>11.69</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>11.66</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>11.63</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>11.57</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>11.52</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>11.49</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>11.48</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>11.47</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>11.47</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>11.46</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>11.46</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>11.45</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>11.45</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>11.45</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>11.45</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>11.46</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>11.47</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>11.48</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>11.49</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>11.48</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>11.46</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>11.46</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>11.45</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>11.45</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>11.45</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>11.47</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>11.52</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>11.54</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>11.56</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>11.56</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>11.58</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>11.62</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>11.63</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>11.64</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>11.64</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>11.68</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>11.73</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>11.75</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>11.78</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>11.82</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>11.81714285714286</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>11.81428571428571</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>11.81142857142857</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>11.80857142857143</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>11.80571428571429</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>11.802857142857141</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>11.79</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>11.78</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>11.77</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>11.77</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>11.77</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>11.78</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>11.79</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>11.8</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>11.81</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>11.82</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>11.82</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>11.79</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>11.76</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>11.73</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>11.69</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>11.69</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>11.68</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>11.67</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>11.67</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>11.67</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>11.66</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>11.65</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>11.64</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>11.63</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>11.63</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>11.63</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>11.63</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>11.63</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>11.63</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>11.63</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>11.63</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>11.63</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>11.61</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>11.59</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>11.57</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>11.54</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>11.53</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>11.52</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>11.51</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>11.53</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>11.56</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>11.59</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>11.62</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>11.65</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>11.65</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>11.66</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>11.68</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="400">
-                  <c:v>11.72</c:v>
-                </c:pt>
-                <c:pt idx="401">
-                  <c:v>11.74</c:v>
-                </c:pt>
-                <c:pt idx="402">
-                  <c:v>11.74</c:v>
-                </c:pt>
-                <c:pt idx="403">
-                  <c:v>11.74</c:v>
-                </c:pt>
-                <c:pt idx="404">
-                  <c:v>11.74</c:v>
-                </c:pt>
-                <c:pt idx="405">
-                  <c:v>11.75</c:v>
-                </c:pt>
-                <c:pt idx="406">
-                  <c:v>11.75</c:v>
-                </c:pt>
-                <c:pt idx="407">
-                  <c:v>11.75</c:v>
-                </c:pt>
-                <c:pt idx="408">
-                  <c:v>11.75</c:v>
-                </c:pt>
-                <c:pt idx="409">
-                  <c:v>11.74</c:v>
-                </c:pt>
-                <c:pt idx="410">
-                  <c:v>11.74</c:v>
-                </c:pt>
-                <c:pt idx="411">
-                  <c:v>11.73</c:v>
-                </c:pt>
-                <c:pt idx="412">
-                  <c:v>11.73</c:v>
-                </c:pt>
-                <c:pt idx="413">
-                  <c:v>11.72</c:v>
-                </c:pt>
-                <c:pt idx="414">
-                  <c:v>11.72</c:v>
-                </c:pt>
-                <c:pt idx="415">
-                  <c:v>11.72</c:v>
-                </c:pt>
-                <c:pt idx="416">
-                  <c:v>11.71</c:v>
-                </c:pt>
-                <c:pt idx="417">
-                  <c:v>11.71</c:v>
-                </c:pt>
-                <c:pt idx="418">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="419">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="420">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="421">
-                  <c:v>11.69</c:v>
-                </c:pt>
-                <c:pt idx="422">
-                  <c:v>11.69</c:v>
-                </c:pt>
-                <c:pt idx="423">
-                  <c:v>11.68</c:v>
-                </c:pt>
-                <c:pt idx="424">
-                  <c:v>11.67</c:v>
-                </c:pt>
-                <c:pt idx="425">
-                  <c:v>11.67</c:v>
-                </c:pt>
-                <c:pt idx="426">
-                  <c:v>11.67</c:v>
-                </c:pt>
-                <c:pt idx="427">
-                  <c:v>11.69</c:v>
-                </c:pt>
-                <c:pt idx="428">
-                  <c:v>11.71</c:v>
-                </c:pt>
-                <c:pt idx="429">
-                  <c:v>11.73</c:v>
-                </c:pt>
-                <c:pt idx="430">
-                  <c:v>11.73</c:v>
-                </c:pt>
-                <c:pt idx="431">
-                  <c:v>11.74</c:v>
-                </c:pt>
-                <c:pt idx="432">
-                  <c:v>11.74</c:v>
-                </c:pt>
-                <c:pt idx="433">
-                  <c:v>11.73</c:v>
-                </c:pt>
-                <c:pt idx="434">
-                  <c:v>11.72</c:v>
-                </c:pt>
-                <c:pt idx="435">
-                  <c:v>11.71</c:v>
-                </c:pt>
-                <c:pt idx="436">
-                  <c:v>11.7</c:v>
-                </c:pt>
-                <c:pt idx="437">
-                  <c:v>11.68</c:v>
-                </c:pt>
-                <c:pt idx="438">
-                  <c:v>11.68</c:v>
-                </c:pt>
-                <c:pt idx="439">
-                  <c:v>11.66</c:v>
-                </c:pt>
-                <c:pt idx="440">
-                  <c:v>11.64</c:v>
-                </c:pt>
-                <c:pt idx="441">
-                  <c:v>11.62</c:v>
-                </c:pt>
-                <c:pt idx="442">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="443">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="444">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="445">
-                  <c:v>11.59</c:v>
-                </c:pt>
-                <c:pt idx="446">
-                  <c:v>11.58</c:v>
-                </c:pt>
-                <c:pt idx="447">
-                  <c:v>11.57</c:v>
-                </c:pt>
-                <c:pt idx="448">
-                  <c:v>11.56</c:v>
-                </c:pt>
-                <c:pt idx="449">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="450">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="451">
-                  <c:v>11.54</c:v>
-                </c:pt>
-                <c:pt idx="452">
-                  <c:v>11.53</c:v>
-                </c:pt>
-                <c:pt idx="453">
-                  <c:v>11.52</c:v>
-                </c:pt>
-                <c:pt idx="454">
-                  <c:v>11.51</c:v>
-                </c:pt>
-                <c:pt idx="455">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="456">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="457">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="458">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="459">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="460">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="461">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="462">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="463">
-                  <c:v>11.505000000000001</c:v>
-                </c:pt>
-                <c:pt idx="464">
-                  <c:v>11.51</c:v>
-                </c:pt>
-                <c:pt idx="465">
-                  <c:v>11.515000000000001</c:v>
-                </c:pt>
-                <c:pt idx="466">
-                  <c:v>11.52</c:v>
-                </c:pt>
-                <c:pt idx="467">
-                  <c:v>11.525</c:v>
-                </c:pt>
-                <c:pt idx="468">
-                  <c:v>11.53</c:v>
-                </c:pt>
-                <c:pt idx="469">
-                  <c:v>11.53333333333333</c:v>
-                </c:pt>
-                <c:pt idx="470">
-                  <c:v>11.536666666666671</c:v>
-                </c:pt>
-                <c:pt idx="471">
-                  <c:v>11.54</c:v>
-                </c:pt>
-                <c:pt idx="472">
-                  <c:v>11.543333333333329</c:v>
-                </c:pt>
-                <c:pt idx="473">
-                  <c:v>11.54666666666667</c:v>
-                </c:pt>
-                <c:pt idx="474">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="475">
-                  <c:v>11.55833333333333</c:v>
-                </c:pt>
-                <c:pt idx="476">
-                  <c:v>11.56666666666667</c:v>
-                </c:pt>
-                <c:pt idx="477">
-                  <c:v>11.574999999999999</c:v>
-                </c:pt>
-                <c:pt idx="478">
-                  <c:v>11.58333333333333</c:v>
-                </c:pt>
-                <c:pt idx="479">
-                  <c:v>11.59166666666667</c:v>
-                </c:pt>
-                <c:pt idx="480">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="481">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="482">
-                  <c:v>11.6</c:v>
-                </c:pt>
-                <c:pt idx="483">
-                  <c:v>11.58</c:v>
-                </c:pt>
-                <c:pt idx="484">
-                  <c:v>11.58</c:v>
-                </c:pt>
-                <c:pt idx="485">
-                  <c:v>11.58</c:v>
-                </c:pt>
-                <c:pt idx="486">
-                  <c:v>11.58</c:v>
-                </c:pt>
-                <c:pt idx="487">
-                  <c:v>11.57</c:v>
-                </c:pt>
-                <c:pt idx="488">
-                  <c:v>11.56</c:v>
-                </c:pt>
-                <c:pt idx="489">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="490">
-                  <c:v>11.54</c:v>
-                </c:pt>
-                <c:pt idx="491">
-                  <c:v>11.54</c:v>
-                </c:pt>
-                <c:pt idx="492">
-                  <c:v>11.54</c:v>
-                </c:pt>
-                <c:pt idx="493">
-                  <c:v>11.54</c:v>
-                </c:pt>
-                <c:pt idx="494">
-                  <c:v>11.54</c:v>
-                </c:pt>
-                <c:pt idx="495">
-                  <c:v>11.52</c:v>
-                </c:pt>
-                <c:pt idx="496">
-                  <c:v>11.52</c:v>
-                </c:pt>
-                <c:pt idx="497">
-                  <c:v>11.52</c:v>
-                </c:pt>
-                <c:pt idx="498">
-                  <c:v>11.52</c:v>
-                </c:pt>
-                <c:pt idx="499">
-                  <c:v>11.52333333333333</c:v>
-                </c:pt>
-                <c:pt idx="500">
-                  <c:v>11.526666666666671</c:v>
-                </c:pt>
-                <c:pt idx="501">
-                  <c:v>11.53</c:v>
-                </c:pt>
-                <c:pt idx="502">
-                  <c:v>11.53333333333333</c:v>
-                </c:pt>
-                <c:pt idx="503">
-                  <c:v>11.536666666666671</c:v>
-                </c:pt>
-                <c:pt idx="504">
-                  <c:v>11.54</c:v>
-                </c:pt>
-                <c:pt idx="505">
-                  <c:v>11.54</c:v>
-                </c:pt>
-                <c:pt idx="506">
-                  <c:v>11.54</c:v>
-                </c:pt>
-                <c:pt idx="507">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="508">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="509">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="510">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="511">
-                  <c:v>11.54</c:v>
-                </c:pt>
-                <c:pt idx="512">
-                  <c:v>11.53</c:v>
-                </c:pt>
-                <c:pt idx="513">
-                  <c:v>11.52</c:v>
-                </c:pt>
-                <c:pt idx="514">
-                  <c:v>11.51</c:v>
-                </c:pt>
-                <c:pt idx="515">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="516">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="517">
-                  <c:v>11.48</c:v>
-                </c:pt>
-                <c:pt idx="518">
-                  <c:v>11.46</c:v>
-                </c:pt>
-                <c:pt idx="519">
-                  <c:v>11.44</c:v>
-                </c:pt>
-                <c:pt idx="520">
-                  <c:v>11.44</c:v>
-                </c:pt>
-                <c:pt idx="521">
-                  <c:v>11.43</c:v>
-                </c:pt>
-                <c:pt idx="522">
-                  <c:v>11.43</c:v>
-                </c:pt>
-                <c:pt idx="523">
-                  <c:v>11.43</c:v>
-                </c:pt>
-                <c:pt idx="524">
-                  <c:v>11.42</c:v>
-                </c:pt>
-                <c:pt idx="525">
-                  <c:v>11.42</c:v>
-                </c:pt>
-                <c:pt idx="526">
-                  <c:v>11.41</c:v>
-                </c:pt>
-                <c:pt idx="527">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="528">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="529">
-                  <c:v>11.39</c:v>
-                </c:pt>
-                <c:pt idx="530">
-                  <c:v>11.38</c:v>
-                </c:pt>
-                <c:pt idx="531">
-                  <c:v>11.37</c:v>
-                </c:pt>
-                <c:pt idx="532">
-                  <c:v>11.36</c:v>
-                </c:pt>
-                <c:pt idx="533">
-                  <c:v>11.35</c:v>
-                </c:pt>
-                <c:pt idx="534">
-                  <c:v>11.35</c:v>
-                </c:pt>
-                <c:pt idx="535">
-                  <c:v>11.36</c:v>
-                </c:pt>
-                <c:pt idx="536">
-                  <c:v>11.37</c:v>
-                </c:pt>
-                <c:pt idx="537">
-                  <c:v>11.38</c:v>
-                </c:pt>
-                <c:pt idx="538">
-                  <c:v>11.39</c:v>
-                </c:pt>
-                <c:pt idx="539">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="540">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="541">
-                  <c:v>11.40833333333333</c:v>
-                </c:pt>
-                <c:pt idx="542">
-                  <c:v>11.41666666666667</c:v>
-                </c:pt>
-                <c:pt idx="543">
-                  <c:v>11.425000000000001</c:v>
-                </c:pt>
-                <c:pt idx="544">
-                  <c:v>11.43333333333333</c:v>
-                </c:pt>
-                <c:pt idx="545">
-                  <c:v>11.44166666666667</c:v>
-                </c:pt>
-                <c:pt idx="546">
-                  <c:v>11.45</c:v>
-                </c:pt>
-                <c:pt idx="547">
-                  <c:v>11.456666666666671</c:v>
-                </c:pt>
-                <c:pt idx="548">
-                  <c:v>11.463333333333329</c:v>
-                </c:pt>
-                <c:pt idx="549">
-                  <c:v>11.47</c:v>
-                </c:pt>
-                <c:pt idx="550">
-                  <c:v>11.47666666666667</c:v>
-                </c:pt>
-                <c:pt idx="551">
-                  <c:v>11.483333333333331</c:v>
-                </c:pt>
-                <c:pt idx="552">
-                  <c:v>11.49</c:v>
-                </c:pt>
-                <c:pt idx="553">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="554">
-                  <c:v>11.51</c:v>
-                </c:pt>
-                <c:pt idx="555">
-                  <c:v>11.52</c:v>
-                </c:pt>
-                <c:pt idx="556">
-                  <c:v>11.53</c:v>
-                </c:pt>
-                <c:pt idx="557">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="558">
-                  <c:v>11.55</c:v>
-                </c:pt>
-                <c:pt idx="559">
-                  <c:v>11.53</c:v>
-                </c:pt>
-                <c:pt idx="560">
-                  <c:v>11.51</c:v>
-                </c:pt>
-                <c:pt idx="561">
-                  <c:v>11.49</c:v>
-                </c:pt>
-                <c:pt idx="562">
-                  <c:v>11.47</c:v>
-                </c:pt>
-                <c:pt idx="563">
-                  <c:v>11.45</c:v>
-                </c:pt>
-                <c:pt idx="564">
-                  <c:v>11.45</c:v>
-                </c:pt>
-                <c:pt idx="565">
-                  <c:v>11.44</c:v>
-                </c:pt>
-                <c:pt idx="566">
-                  <c:v>11.43</c:v>
-                </c:pt>
-                <c:pt idx="567">
-                  <c:v>11.42</c:v>
-                </c:pt>
-                <c:pt idx="568">
-                  <c:v>11.41</c:v>
-                </c:pt>
-                <c:pt idx="569">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="570">
-                  <c:v>11.4</c:v>
-                </c:pt>
-                <c:pt idx="571">
-                  <c:v>11.38</c:v>
-                </c:pt>
-                <c:pt idx="572">
-                  <c:v>11.36</c:v>
-                </c:pt>
-                <c:pt idx="573">
-                  <c:v>11.34</c:v>
-                </c:pt>
-                <c:pt idx="574">
-                  <c:v>11.34</c:v>
-                </c:pt>
-                <c:pt idx="575">
-                  <c:v>11.34</c:v>
-                </c:pt>
-                <c:pt idx="576">
-                  <c:v>11.34</c:v>
-                </c:pt>
-                <c:pt idx="577">
-                  <c:v>11.33333333333333</c:v>
-                </c:pt>
-                <c:pt idx="578">
-                  <c:v>11.32666666666667</c:v>
-                </c:pt>
-                <c:pt idx="579">
-                  <c:v>11.32</c:v>
-                </c:pt>
-                <c:pt idx="580">
-                  <c:v>11.313333333333331</c:v>
-                </c:pt>
-                <c:pt idx="581">
-                  <c:v>11.30666666666667</c:v>
-                </c:pt>
-                <c:pt idx="582">
-                  <c:v>11.3</c:v>
-                </c:pt>
-                <c:pt idx="583">
-                  <c:v>11.303333333333329</c:v>
-                </c:pt>
-                <c:pt idx="584">
-                  <c:v>11.30666666666667</c:v>
-                </c:pt>
-                <c:pt idx="585">
-                  <c:v>11.31</c:v>
-                </c:pt>
-                <c:pt idx="586">
-                  <c:v>11.313333333333331</c:v>
-                </c:pt>
-                <c:pt idx="587">
-                  <c:v>11.31666666666667</c:v>
-                </c:pt>
-                <c:pt idx="588">
-                  <c:v>11.32</c:v>
-                </c:pt>
-                <c:pt idx="589">
-                  <c:v>11.321666666666671</c:v>
-                </c:pt>
-                <c:pt idx="590">
-                  <c:v>11.323333333333331</c:v>
-                </c:pt>
-                <c:pt idx="591">
-                  <c:v>11.324999999999999</c:v>
-                </c:pt>
-                <c:pt idx="592">
-                  <c:v>11.32666666666667</c:v>
-                </c:pt>
-                <c:pt idx="593">
-                  <c:v>11.32833333333333</c:v>
-                </c:pt>
-                <c:pt idx="594">
-                  <c:v>11.33</c:v>
-                </c:pt>
-                <c:pt idx="595">
-                  <c:v>11.35</c:v>
-                </c:pt>
-                <c:pt idx="596">
-                  <c:v>11.37</c:v>
-                </c:pt>
-                <c:pt idx="597">
-                  <c:v>11.39</c:v>
-                </c:pt>
-                <c:pt idx="598">
-                  <c:v>11.41</c:v>
-                </c:pt>
-                <c:pt idx="599">
-                  <c:v>11.43</c:v>
-                </c:pt>
-                <c:pt idx="600">
-                  <c:v>11.45</c:v>
-                </c:pt>
-                <c:pt idx="601">
-                  <c:v>11.471666666666669</c:v>
-                </c:pt>
-                <c:pt idx="602">
-                  <c:v>11.493333333333331</c:v>
-                </c:pt>
-                <c:pt idx="603">
-                  <c:v>11.515000000000001</c:v>
-                </c:pt>
-                <c:pt idx="604">
-                  <c:v>11.536666666666671</c:v>
-                </c:pt>
-                <c:pt idx="605">
-                  <c:v>11.55833333333333</c:v>
-                </c:pt>
-                <c:pt idx="606">
-                  <c:v>11.58</c:v>
-                </c:pt>
-                <c:pt idx="607">
-                  <c:v>11.59166666666667</c:v>
-                </c:pt>
-                <c:pt idx="608">
-                  <c:v>11.60333333333333</c:v>
-                </c:pt>
-                <c:pt idx="609">
-                  <c:v>11.615</c:v>
-                </c:pt>
-                <c:pt idx="610">
-                  <c:v>11.62666666666667</c:v>
-                </c:pt>
-                <c:pt idx="611">
-                  <c:v>11.63833333333333</c:v>
-                </c:pt>
-                <c:pt idx="612">
-                  <c:v>11.65</c:v>
-                </c:pt>
-                <c:pt idx="613">
-                  <c:v>11.676666666666669</c:v>
-                </c:pt>
-                <c:pt idx="614">
-                  <c:v>11.70333333333333</c:v>
-                </c:pt>
-                <c:pt idx="615">
-                  <c:v>11.73</c:v>
-                </c:pt>
-                <c:pt idx="616">
-                  <c:v>11.756666666666669</c:v>
-                </c:pt>
-                <c:pt idx="617">
-                  <c:v>11.78333333333333</c:v>
-                </c:pt>
-                <c:pt idx="618">
-                  <c:v>11.81</c:v>
-                </c:pt>
-                <c:pt idx="619">
-                  <c:v>11.925000000000001</c:v>
-                </c:pt>
-                <c:pt idx="620">
-                  <c:v>12.04</c:v>
-                </c:pt>
-                <c:pt idx="621">
-                  <c:v>12.154999999999999</c:v>
-                </c:pt>
-                <c:pt idx="622">
-                  <c:v>12.27</c:v>
-                </c:pt>
-                <c:pt idx="623">
-                  <c:v>12.385</c:v>
-                </c:pt>
-                <c:pt idx="624">
-                  <c:v>12.5</c:v>
-                </c:pt>
-                <c:pt idx="625">
-                  <c:v>12.52166666666667</c:v>
-                </c:pt>
-                <c:pt idx="626">
-                  <c:v>12.543333333333329</c:v>
-                </c:pt>
-                <c:pt idx="627">
-                  <c:v>12.565</c:v>
-                </c:pt>
-                <c:pt idx="628">
-                  <c:v>12.58666666666667</c:v>
-                </c:pt>
-                <c:pt idx="629">
-                  <c:v>12.608333333333331</c:v>
-                </c:pt>
-                <c:pt idx="630">
-                  <c:v>12.63</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0EBD-4820-B562-F1AC3DB71736}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="408218896"/>
-        <c:axId val="408221392"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="408218896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="408221392"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="408221392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="408218896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>633412</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC4977B3-348A-499C-9D35-B6A07A4ED947}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3221,11 +469,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X632"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -49999,6 +47250,5 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/database/ZoupingCounty_gwl_filled.xlsx
+++ b/database/ZoupingCounty_gwl_filled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Coding_path\Groundwater_Level_Prediction_ML_DL\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDF85FA-7AB6-4E52-954F-4CA4F352CE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E057D363-4CE8-4AB2-9082-7C7A8F5AD689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="3825" windowWidth="25320" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="linear插值" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>日期</t>
-  </si>
   <si>
     <t>井1</t>
   </si>
@@ -93,6 +90,10 @@
   <si>
     <t>井23</t>
   </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -101,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +121,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,12 +165,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -469,87 +480,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="1" max="1" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
